--- a/medicine/Enfance/Prix_Imaginales/Prix_Imaginales.xlsx
+++ b/medicine/Enfance/Prix_Imaginales/Prix_Imaginales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prix Imaginales est un prix littéraire créé en mai 2002[1]. Il est décerné lors du festival du même nom qui se déroule chaque année au mois de mai, à Épinal, dans les Vosges. 
+Le prix Imaginales est un prix littéraire créé en mai 2002. Il est décerné lors du festival du même nom qui se déroule chaque année au mois de mai, à Épinal, dans les Vosges. 
 Le prix récompense les meilleures œuvres de fantasy de l'année dans six catégories :
 Meilleur roman francophone ;
 Meilleur roman étranger traduit en français ;
@@ -491,12 +503,12 @@
 Meilleure illustration ;
 Meilleure nouvelle ;
 Prix spécial du jury.
-Chaque prix est doté (1 000 euros  pour les quatre premières catégories, 250 euros pour les deux dernières)[2].
+Chaque prix est doté (1 000 euros  pour les quatre premières catégories, 250 euros pour les deux dernières).
 En outre, trois prix de lecteurs sont attribués chaque année par une trentaine de classes de primaires, collèges et lycées de toute la région. 
 Prix des lycéens (depuis 2005) ;
 Prix des collégiens (depuis 2009) ;
 Prix des écoliers (depuis 2015).
-Ces prix, désormais largement reconnus, bénéficient d'un important écho dans les médias, y compris à l'international (notamment dans les pays francophones)[3],[4],[5],[6].
+Ces prix, désormais largement reconnus, bénéficient d'un important écho dans les médias, y compris à l'international (notamment dans les pays francophones).
 </t>
         </is>
       </c>
@@ -525,7 +537,9 @@
           <t>Jury</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les prix sont attribués pendant le festival Imaginales, qui se tient à Épinal dans la seconde quinzaine du mois de mai.
 Le jury permanent est composé de :
@@ -563,11 +577,48 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 2004, une catégorie jeunesse a été ajoutée. L'année suivante, le nombre de catégories a été porté à six, avec la séparation du prix du roman en deux catégories : roman francophone et roman étranger traduit.
-Meilleur roman francophone
-2005 : L'Elixir d'oubli par Pierre Pevel
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, une catégorie jeunesse a été ajoutée. L'année suivante, le nombre de catégories a été porté à six, avec la séparation du prix du roman en deux catégories : roman francophone et roman étranger traduit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Meilleur roman francophone</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2005 : L'Elixir d'oubli par Pierre Pevel
 2006 : Les Enfants de la veuve par Henri Lœvenbruck
 2007 : 1794 (L'Enjomineur, t.3) par Pierre Bordage
 2008 : Le Trône d'Ébène par Thomas Day
@@ -585,9 +636,43 @@
 2020 : Danse avec les lutins par Catherine Dufour
 2021 : Thecel par Léo Henry
 2022 : Le Sang de la cité (Capitale du Sud, t.1) par Guillaume Chamanadjian
-2023 : Les marins ne savent pas nager par Dominique Scali
-Meilleur roman étranger
-2005 : Le Frère initié par Sean Russell (trad. Pierre Goubert)
+2023 : Les marins ne savent pas nager par Dominique Scali</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Meilleur roman étranger</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2005 : Le Frère initié par Sean Russell (trad. Pierre Goubert)
 2006 : Les Fantômes d'Ombria par Patricia A. McKillip (trad. Pascal Tilche)
 2007 : La Déchirure et Le Cavalier rêveur (Le Soldat chamane, t. 1 &amp; 2) par Robin Hobb (trad. Arnaud Mousnier-Lompré)
 2008 : Des horizons rouge sang (Les Salauds Gentilshommes, t. 2) par Scott Lynch (trad. Olivier Debernard)
@@ -605,13 +690,81 @@
 2020 : Vita Nostra par Marina et Sergueï Diatchenko (ru)  (trad. Denis E. Savine)
 2021 : Kra par John Crowley (trad. Patrick Couton)
 2022 : Notre part de nuit par Mariana Enríquez (trad. Anne Plantagenet)
-2023 : Jusque dans la terre par Sue Rainsford (trad. Francis Guévremont)
-Meilleur roman (avant 2005)
-2002 : La Folie de Dieu par Juan Miguel Aguilera (trad. Agnès Naudin)
+2023 : Jusque dans la terre par Sue Rainsford (trad. Francis Guévremont)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Meilleur roman (avant 2005)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2002 : La Folie de Dieu par Juan Miguel Aguilera (trad. Agnès Naudin)
 2003 : Le Pas de Merlin par Jean-Louis Fetjaine
-2004 : Le Dernier Magicien par Megan Lindholm (trad. Sylvie Denis)
-Meilleure œuvre pour la jeunesse
-2004 : La Quête d'Ewilan par Pierre Bottero
+2004 : Le Dernier Magicien par Megan Lindholm (trad. Sylvie Denis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Meilleure œuvre pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2004 : La Quête d'Ewilan par Pierre Bottero
 2005 : Jour de lumière, nuit de guerre (Abarat, t.2) par Clive Barker
 2006 : Le Dernier Elfe par Silvana De Mari
 2007 : Le Vol du héron (Le Clan des Otori, t.4) par Lian Hearn
@@ -630,9 +783,43 @@
 2020 : L'Estrange Malaventure de Mirella par Flore Vesco
 2021 : Akata Witch par Nnedi Okorafor
 2022 : Les Voleurs de fumée par Sally Green
-2023 : La Dragonne et le Drôle par Damien Galisson
-Meilleure nouvelle
-2002 : Le Sang des titanides par Jonas Lenn
+2023 : La Dragonne et le Drôle par Damien Galisson</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Meilleure nouvelle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2002 : Le Sang des titanides par Jonas Lenn
 2003 : L’Étrangeté du jour par Kristine Kathryn Rusch
 2004 : Scarrowfell (Dans la vallée des statues et autres histoires) par Robert Holdstock (traduction Philippe Gindre)
 2005 : Musiques de la Frontière par Léa Silhol
@@ -653,9 +840,43 @@
 2020 : Chuchoteurs du dragon et autres murmures par Thomas Geha
 2021 : Bienvenue à Sturkeyville par Bob Leman
 2022 : Féro(ce)cités par Eymeric Amselem, Fran Basil, Edouard H. Blaes, Jeanne Mariem Correze, Kevane Demillas, Delphine H. Edwin, Thomas Fouchault, Jason Martin, Pauline Sidre et Xavier Watillon
-2023 : Le Serpent (La Maison des Jeux, t.1) par Claire North
-Meilleure illustration
-2002 : Sandrine Gestin, pour sa couverture de Harmelinde et Deirdre (livre de Nicolas Cluzeau)
+2023 : Le Serpent (La Maison des Jeux, t.1) par Claire North</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Meilleure illustration</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2002 : Sandrine Gestin, pour sa couverture de Harmelinde et Deirdre (livre de Nicolas Cluzeau)
 2003 : John Howe, pour son livre Sur les terres de Tolkien
 2004 : Laurent Miny, pour sa couverture de Les Enchantements d’Ambremer (livre de Pierre Pevel)
 2005 : Guillaume Sorel, pour sa couverture de Les Tisserands de Saramyr (livre de Chris Wooding)
@@ -676,17 +897,85 @@
 2020 : François Baranger, pour son livre Les Montagnes hallucinées 1 (d'après H. P. Lovecraft)
 2021 : Alan Lee, pour son livre Cahier de croquis du hobbit (d'après J. R. R. Tolkien)
 2022 : Armel Gaulme, pour L’Homme qui voulut être roi de Rudyard Kipling
-2023 : Suzanne-Raphaele Lagneau pour Salammbô
-Meilleure bande-dessinée
-Le prix a été décerné pour la première fois en mai 2011.
+2023 : Suzanne-Raphaele Lagneau pour Salammbô</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Meilleure bande-dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le prix a été décerné pour la première fois en mai 2011.
 2011 : Vengeances (Marie des dragons, t.2) par Ange et Thierry Démarez
 2012 : La Dynastie des dragons par Hélène Herbeau et Emmanuel Civiello
 2013 : Les Aventuriers du temps perdu par Wilfrid Lupano et Jean-Baptiste Andrea
-2021 : Première Née (Les Ogres-Dieux, t.4) par Hubert et Bertrand Gatignol[7]
+2021 : Première Née (Les Ogres-Dieux, t.4) par Hubert et Bertrand Gatignol
 2022 : Les idées sont de drôles de bestioles par Isabelle Simler
-2023 : Le Poids des héros par David Sala
-Prix spécial du jury
-2002 : Patrick Couton pour ses traductions des Annales du Disque-Monde de Terry Pratchett
+2023 : Le Poids des héros par David Sala</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prix spécial du jury</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2002 : Patrick Couton pour ses traductions des Annales du Disque-Monde de Terry Pratchett
 2003 : Claudine Glot et Michel Le Bris, Fées, elfes, dragons et autres créatures des royaumes de féerie
 2004 : Jacques Goimard, Critique du merveilleux et de la fantasy
 2005 : André-François Ruaud, Panorama illustré de la fantasy et du merveilleux
@@ -707,9 +996,43 @@
 2020 : S. T. Joshi pour Lovecraft : Je suis providence (t.1 et t.2)
 2021 : Julien Pirou pour La Grande Aventure du jeu de rôle
 2022 : Martin Aurell pour Excalibur, Durendal, Joyeuse : La Force de l’épée
-2023 : Le Livre des martyrs par Steven Erikson
-Prix Imaginales des lycéens
-Le prix a été décerné pour la première fois en 2005[8].
+2023 : Le Livre des martyrs par Steven Erikson</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Prix Imaginales des lycéens</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le prix a été décerné pour la première fois en 2005.
 2005 : Les Fables de l'Humpur par Pierre Bordage et Structura Maxima Olivier Paquet (ex æquo)
 2006 : La Horde du Contrevent par Alain Damasio
 2007 : Les Armes de Garamont (La Malerune, t.1) par Pierre Grimbert
@@ -728,9 +1051,43 @@
 2020 : Cogito par Victor Dixen
 2021 : Rouge par Pascaline Nolot
 2022 : La Princesse au visage de nuit par David Bry
-2023 : Veggy vs. Zombies par Lydie Wallon
-Prix Imaginales des collégiens
-Le prix a été décerné pour la première fois en mai 2009[9].
+2023 : Veggy vs. Zombies par Lydie Wallon</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Prix Imaginales des collégiens</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le prix a été décerné pour la première fois en mai 2009.
 2009 : Le Livre des âmes (La Quête des livres monde, t.1) par Carina Rozenfeld
 2010 : Salicande (Les Éveilleurs, t.1) par Pauline Alphen
 2011 : Les Âmes croisées par Pierre Bottero
@@ -745,9 +1102,43 @@
 2020 : Je peux te voir par Carina Rozenfeld
 2021 : L'Héliotrope par E. S. Green
 2022 : Les Papillons de Kobé (Le Nom des morts, t.1) par Bertrand Puard
-2023 : Les Mots fantômes par David Moitet
-Prix Imaginales des écoliers
-Le prix a été décerné pour la première fois en 2015[10].
+2023 : Les Mots fantômes par David Moitet</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Prix Imaginales des écoliers</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le prix a été décerné pour la première fois en 2015.
 2015 : La Forêt des ténèbres (Malenfer, t.1) par Cassandra O'Donnell
 2016 : Le Lutin du cabinet noir par Jean-François Chabas
 2017 : Traces par Florence Hinckel
@@ -756,9 +1147,43 @@
 2020 : La Toute Petite Librairie par Adeline Ruel
 2021 : Panique à Gémelia par Betty Piccioli
 2022 : La Malédiction du Bois d’Ombres (Les Héritiers de Brisaines, t.1) par David Bry
-2023 : Le Sablier de l'arbre sacré par Jo Riley-Black
-Prix Imaginales des bibliothécaires
-Le prix a été décerné pour la première fois en 2018[11].
+2023 : Le Sablier de l'arbre sacré par Jo Riley-Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Imaginales</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Prix Imaginales des bibliothécaires</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le prix a été décerné pour la première fois en 2018.
 2018 : Boudicca par Jean-Laurent Del Socorro
 2019 : Les Deux Visages par Paul Beorn
 2020 : Mers mortes par Aurélie Wellenstein
